--- a/analytics/code/static/data/TM_OHEC.xlsx
+++ b/analytics/code/static/data/TM_OHEC.xlsx
@@ -8,26 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/likit/Dropbox/tmob2018_2/analytics/code/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C455DDEF-1DB7-A04A-AB7B-4A1BA3B34A1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2479463-AC25-024B-A673-AA3BF76ACAD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AAA" sheetId="6" r:id="rId1"/>
     <sheet name="Man. Budget" sheetId="7" r:id="rId2"/>
     <sheet name="trainingBudget" sheetId="29" r:id="rId3"/>
     <sheet name="operationBudget" sheetId="28" r:id="rId4"/>
-    <sheet name="Proj.Re.St (Scale)" sheetId="27" r:id="rId5"/>
-    <sheet name="Proj 59" sheetId="12" r:id="rId6"/>
-    <sheet name="Proj 60" sheetId="13" r:id="rId7"/>
-    <sheet name="Proj 61" sheetId="14" r:id="rId8"/>
-    <sheet name="TM Network" sheetId="20" r:id="rId9"/>
+    <sheet name="students" sheetId="32" r:id="rId5"/>
+    <sheet name="researchers" sheetId="31" r:id="rId6"/>
+    <sheet name="projects" sheetId="30" r:id="rId7"/>
+    <sheet name="Proj.Re.St (Scale)" sheetId="27" r:id="rId8"/>
+    <sheet name="Proj 59" sheetId="12" r:id="rId9"/>
+    <sheet name="Proj 60" sheetId="13" r:id="rId10"/>
+    <sheet name="Proj 61" sheetId="14" r:id="rId11"/>
+    <sheet name="TM Network" sheetId="20" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Man. Budget'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Proj 59'!$B$1:$C$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Proj 60'!$A$1:$C$96</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Proj 61'!$A$1:$N$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Proj 59'!$B$1:$C$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Proj 60'!$A$1:$C$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Proj 61'!$A$1:$N$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1019">
   <si>
     <t>University</t>
   </si>
@@ -3044,33 +3047,6 @@
     <t>OHEC 61</t>
   </si>
   <si>
-    <t>P59</t>
-  </si>
-  <si>
-    <t>R59</t>
-  </si>
-  <si>
-    <t>S59</t>
-  </si>
-  <si>
-    <t>P60</t>
-  </si>
-  <si>
-    <t>R60</t>
-  </si>
-  <si>
-    <t>S60</t>
-  </si>
-  <si>
-    <t>P61</t>
-  </si>
-  <si>
-    <t>R61</t>
-  </si>
-  <si>
-    <t>S61</t>
-  </si>
-  <si>
     <t>MUT</t>
   </si>
   <si>
@@ -3120,6 +3096,9 @@
   </si>
   <si>
     <t>Fullname</t>
+  </si>
+  <si>
+    <t>สถาบันบัณฑิตพัฒนบริหารศาสตร์</t>
   </si>
 </sst>
 </file>
@@ -3774,11 +3753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3795,7 +3774,7 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4106,42 +4085,3985 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="C32" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="C33" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="C34" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="C35" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C36" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>993</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O96"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="3"/>
+    <col min="2" max="2" width="34.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="3" customWidth="1"/>
+    <col min="4" max="15" width="9.1640625" style="3"/>
+    <col min="16" max="16384" width="9.1640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C96" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:N64"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N65" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.1640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="6">
+        <f t="shared" ref="B26:D26" si="0">COUNTIF(B2:B25,"Y")</f>
+        <v>13</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4169,7 +8091,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -4177,7 +8099,7 @@
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
       <c r="H1" s="55" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="I1" s="55"/>
       <c r="J1" s="55"/>
@@ -4189,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="C2" s="22">
         <v>2559</v>
@@ -4906,7 +8828,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H26" s="37" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="37"/>
@@ -4928,7 +8850,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H28" s="37" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="37"/>
@@ -4939,7 +8861,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H29" s="37" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="37"/>
@@ -4950,7 +8872,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H30" s="37" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="37"/>
@@ -4961,7 +8883,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H31" s="37" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="I31" s="38"/>
       <c r="J31" s="39">
@@ -5059,7 +8981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD12AA30-FF9F-3C40-9CB5-1932A55A74D2}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -5355,7 +9277,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="D25">
         <v>200000</v>
@@ -5371,7 +9293,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="D27">
         <v>600000</v>
@@ -5379,7 +9301,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="D28">
         <v>600000</v>
@@ -5387,7 +9309,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="D29">
         <v>200000</v>
@@ -5395,7 +9317,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="C30">
         <v>400000</v>
@@ -5429,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="C1">
         <v>2559</v>
@@ -5825,14 +9747,1193 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5730010-B5A1-1F4A-A072-23C81D225BAE}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2559</v>
+      </c>
+      <c r="C1">
+        <v>2560</v>
+      </c>
+      <c r="D1">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>993</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2F8843-7063-3A42-96DD-E98740479736}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2559</v>
+      </c>
+      <c r="C1">
+        <v>2560</v>
+      </c>
+      <c r="D1">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>993</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5B8E53-562C-A14A-8D0D-81FD402525A2}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2559</v>
+      </c>
+      <c r="D1">
+        <v>2560</v>
+      </c>
+      <c r="E1">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>997</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>997</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>997</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>997</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>994</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>994</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>994</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>994</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>994</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>994</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>994</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>994</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>994</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>994</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>994</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>994</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>994</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>994</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>993</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5842,54 +10943,54 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C1" s="56" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="D1" s="56"/>
       <c r="E1" s="56"/>
       <c r="F1" s="56" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="G1" s="56"/>
       <c r="H1" s="56"/>
       <c r="I1" s="56" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="J1" s="56"/>
       <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>995</v>
+        <v>0</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J2" s="52" t="s">
-        <v>1006</v>
-      </c>
-      <c r="K2" s="53" t="s">
-        <v>1009</v>
+      <c r="C2" s="50">
+        <v>2559</v>
+      </c>
+      <c r="D2" s="50">
+        <v>2560</v>
+      </c>
+      <c r="E2" s="50">
+        <v>2561</v>
+      </c>
+      <c r="F2" s="51">
+        <v>2559</v>
+      </c>
+      <c r="G2" s="51">
+        <v>2560</v>
+      </c>
+      <c r="H2" s="51">
+        <v>2561</v>
+      </c>
+      <c r="I2" s="52">
+        <v>2559</v>
+      </c>
+      <c r="J2" s="52">
+        <v>2560</v>
+      </c>
+      <c r="K2" s="53">
+        <v>2561</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -6905,7 +12006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
@@ -8039,3923 +13140,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O96"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.1640625" style="3"/>
-    <col min="2" max="2" width="34.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="3" customWidth="1"/>
-    <col min="4" max="15" width="9.1640625" style="3"/>
-    <col min="16" max="16384" width="9.1640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="80" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="80" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="80" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="80" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>53</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>61</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>62</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>63</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>64</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>65</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>66</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>67</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <v>70</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>71</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>72</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>74</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="M75" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>75</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>77</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>78</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>79</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>80</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <v>81</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
-        <v>82</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
-        <v>83</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
-        <v>84</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="80" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <v>85</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
-        <v>86</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
-        <v>87</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
-        <v>88</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="80" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
-        <v>89</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
-        <v>90</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
-        <v>91</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
-        <v>92</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
-        <v>93</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
-        <v>94</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
-        <v>95</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C96" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N64"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="112" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>989</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>970</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>972</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="128" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="80" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="128" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="96" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="80" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="96" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="96" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="96" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="112" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="112" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="112" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>53</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>61</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>62</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>63</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>901</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:N65" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.1640625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>995</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>999</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="6">
-        <f t="shared" ref="B26:D26" si="0">COUNTIF(B2:B25,"Y")</f>
-        <v>13</v>
-      </c>
-      <c r="C26" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D26" s="6">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>